--- a/Test Data/TC_63775_Verify_DC_Units_Displayed_For_Non_Split_Loops_FC.xlsx
+++ b/Test Data/TC_63775_Verify_DC_Units_Displayed_For_Non_Split_Loops_FC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD150A-B2EA-45B7-888B-D25417EF23F6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E1043E-0EE5-4902-9A07-22A4DE9F6187}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Devices_LoopA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Device</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>To verify DC unit calculation for non split loops</t>
+  </si>
+  <si>
+    <t>DC Unit Loading Details Name</t>
+  </si>
+  <si>
+    <t>Current (DC Units)</t>
+  </si>
+  <si>
+    <t>Current (worst case)</t>
   </si>
 </sst>
 </file>
@@ -529,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +547,8 @@
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="5" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
@@ -551,6 +561,9 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
@@ -569,6 +582,9 @@
         <v>4</v>
       </c>
       <c r="D2" s="12"/>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
@@ -586,6 +602,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -664,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -673,7 +692,8 @@
     <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="5" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="15.33203125" customWidth="1"/>
@@ -688,6 +708,9 @@
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
+      <c r="E1" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
@@ -707,6 +730,9 @@
         <v>4</v>
       </c>
       <c r="D2" s="12"/>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
@@ -714,7 +740,7 @@
         <v>299.32</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -724,6 +750,9 @@
       <c r="C3" s="1"/>
       <c r="D3" s="9" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">

--- a/Test Data/TC_63775_Verify_DC_Units_Displayed_For_Non_Split_Loops_FC.xlsx
+++ b/Test Data/TC_63775_Verify_DC_Units_Displayed_For_Non_Split_Loops_FC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8E1043E-0EE5-4902-9A07-22A4DE9F6187}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FC6C6A-6A4F-4060-9EA1-2AB2EE604CD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add_Devices_LoopA" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
   <si>
     <t>Device</t>
   </si>
@@ -130,9 +130,6 @@
     <t>verifyDCUnitCalculationForNonSplitLoops</t>
   </si>
   <si>
-    <t>NGC-1826/TC-63775</t>
-  </si>
-  <si>
     <t>To verify DC unit calculation for non split loops</t>
   </si>
   <si>
@@ -143,6 +140,27 @@
   </si>
   <si>
     <t>Current (worst case)</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
+  </si>
+  <si>
+    <t>Built-in Loop-C</t>
+  </si>
+  <si>
+    <t>Built-in Loop-D</t>
+  </si>
+  <si>
+    <t>NGC-1826/T916 OR TC-63775</t>
   </si>
 </sst>
 </file>
@@ -232,13 +250,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -536,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,121 +566,142 @@
     <col min="5" max="5" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="4">
-        <v>299.32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="G1" s="3">
+        <v>300</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="7" t="s">
-        <v>35</v>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="9" t="s">
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -681,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,119 +737,139 @@
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="5" t="s">
-        <v>34</v>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="4">
-        <v>319.8</v>
-      </c>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="G1" s="3">
+        <v>320</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="B2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="7" t="s">
-        <v>35</v>
+      <c r="D2" s="11"/>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="4">
-        <v>299.32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="G2" s="3">
+        <v>300</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9" t="s">
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="4"/>
-      <c r="D5" s="9" t="s">
+      <c r="H4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="H5" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
